--- a/source/C_CERTIFICATES.xlsx
+++ b/source/C_CERTIFICATES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Date of Birth</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Total-50</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>(ac)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,9 +414,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,24 +451,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -767,124 +782,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="15" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
     </row>
-    <row r="2" spans="1:27" s="18" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="12" t="s">
+    <row r="2" spans="1:28" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="14" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="18" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+    <row r="3" spans="1:28" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
@@ -924,17 +943,18 @@
       <c r="V3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="8" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="10"/>
+      <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1016,8 +1036,11 @@
       <c r="AA4" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="AB4" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1042,29 +1065,31 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:U1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/source/C_CERTIFICATES.xlsx
+++ b/source/C_CERTIFICATES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="C" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -190,9 +190,6 @@
     <t>Grand Total  500</t>
   </si>
   <si>
-    <t>Ebrolment Number</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>(ac)</t>
+  </si>
+  <si>
+    <t>Enrolment Number</t>
   </si>
 </sst>
 </file>
@@ -418,6 +418,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -432,33 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -538,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,26 +784,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>58</v>
+      <c r="A1" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -822,20 +822,20 @@
         <v>6</v>
       </c>
       <c r="K1" s="11"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="22" t="s">
-        <v>60</v>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>57</v>
@@ -843,63 +843,63 @@
       <c r="X1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="2" spans="1:28" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="22"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="16"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="21" t="s">
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="21"/>
+      <c r="AA2" s="15"/>
       <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -941,11 +941,11 @@
         <v>28</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="25"/>
+      <c r="Y3" s="19"/>
       <c r="Z3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1034,10 +1034,10 @@
         <v>56</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1069,6 +1069,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Z1:AB1"/>
@@ -1079,17 +1090,6 @@
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/source/C_CERTIFICATES.xlsx
+++ b/source/C_CERTIFICATES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="C" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -387,9 +387,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -538,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +572,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,290 +781,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="28" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="16" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="13" t="s">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="15" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="3" t="s">
+    <row r="3" spans="1:28" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="8" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="11"/>
+      <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
